--- a/mainWidget/mainWidget/src/database/外防热材料.xlsx
+++ b/mainWidget/mainWidget/src/database/外防热材料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProject\gfapp_new\gfapp\mainWidget\mainWidget\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF5D0B-7DCC-4AA0-A302-EF942184059C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57778CF8-C705-47A9-BCDE-6D6AACA2AD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1217,7 +1217,6 @@
         <v>0.35</v>
       </c>
       <c r="G2" s="7">
-        <f>INT(H2/1.5)</f>
         <v>13</v>
       </c>
       <c r="H2" s="9">
@@ -1250,7 +1249,6 @@
         <v>0.3</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G31" si="0">INT(H3/1.5)</f>
         <v>40</v>
       </c>
       <c r="H3" s="14">
@@ -1283,7 +1281,6 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="H4" s="14">
@@ -1316,7 +1313,6 @@
         <v>0.22</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H5" s="14">
@@ -1349,7 +1345,6 @@
         <v>0.17</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="H6" s="14">
@@ -1382,7 +1377,6 @@
         <v>0.35</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="14">
@@ -1415,7 +1409,6 @@
         <v>0.35</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="14">
@@ -1448,7 +1441,6 @@
         <v>0.35</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="14">
@@ -1481,7 +1473,6 @@
         <v>0.35</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H10" s="14">
@@ -1514,7 +1505,6 @@
         <v>0.35</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H11" s="14">
@@ -1547,7 +1537,6 @@
         <v>0.35</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H12" s="14">
@@ -1580,7 +1569,6 @@
         <v>0.35</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H13" s="14">
@@ -1613,7 +1601,6 @@
         <v>0.22</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H14" s="14">
@@ -1646,7 +1633,6 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
         <v>166</v>
       </c>
       <c r="H15" s="14">
@@ -1679,7 +1665,6 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H16" s="14">
@@ -1712,7 +1697,6 @@
         <v>0.25</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H17" s="14">
@@ -1745,7 +1729,6 @@
         <v>0.17</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="H18" s="14">
@@ -1778,7 +1761,6 @@
         <v>0.16</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H19" s="14">
@@ -1811,7 +1793,6 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="H20" s="14">
@@ -1844,7 +1825,6 @@
         <v>0.15</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="H21" s="14">
@@ -1877,7 +1857,6 @@
         <v>0.25</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="H22" s="14">
@@ -1910,7 +1889,6 @@
         <v>0.45</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H23" s="14">
@@ -1943,7 +1921,6 @@
         <v>0.45</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H24" s="14">
@@ -1976,7 +1953,6 @@
         <v>0.45</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H25" s="14">
@@ -2009,7 +1985,6 @@
         <v>0.35</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H26" s="14">
@@ -2042,7 +2017,6 @@
         <v>0.35</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H27" s="14">
@@ -2075,7 +2049,6 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="H28" s="14">
@@ -2108,7 +2081,6 @@
         <v>0.25</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H29" s="14">
@@ -2141,7 +2113,6 @@
         <v>0.2</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H30" s="14">
@@ -2174,7 +2145,6 @@
         <v>0.35</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H31" s="14">
